--- a/Tabelas com os resultados dos testes -12-01-2025/Level4TestcaseReport.xlsx
+++ b/Tabelas com os resultados dos testes -12-01-2025/Level4TestcaseReport.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\class lectures\project\Tabelas com os resultados dos testes -12-01-2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\class lectures\PRISEC III FINAL THESIS\Tabelas com os resultados dos testes -12-01-2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -120,12 +120,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -178,7 +190,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -218,6 +230,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -594,11 +612,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="331372408"/>
-        <c:axId val="331373976"/>
+        <c:axId val="334113664"/>
+        <c:axId val="334115232"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="331372408"/>
+        <c:axId val="334113664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -641,7 +659,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="331373976"/>
+        <c:crossAx val="334115232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -649,7 +667,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="331373976"/>
+        <c:axId val="334115232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -700,7 +718,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="331372408"/>
+        <c:crossAx val="334113664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -714,6 +732,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1065,11 +1084,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="332965120"/>
-        <c:axId val="332969432"/>
+        <c:axId val="335642336"/>
+        <c:axId val="335640768"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="332965120"/>
+        <c:axId val="335642336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1112,7 +1131,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="332969432"/>
+        <c:crossAx val="335640768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1120,7 +1139,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="332969432"/>
+        <c:axId val="335640768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1171,7 +1190,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="332965120"/>
+        <c:crossAx val="335642336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1609,11 +1628,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="332962768"/>
-        <c:axId val="332963160"/>
+        <c:axId val="335638024"/>
+        <c:axId val="335639200"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="332962768"/>
+        <c:axId val="335638024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1656,7 +1675,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="332963160"/>
+        <c:crossAx val="335639200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1664,7 +1683,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="332963160"/>
+        <c:axId val="335639200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1715,7 +1734,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="332962768"/>
+        <c:crossAx val="335638024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2153,11 +2172,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="332964336"/>
-        <c:axId val="332964728"/>
+        <c:axId val="334112096"/>
+        <c:axId val="334112488"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="332964336"/>
+        <c:axId val="334112096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2200,7 +2219,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="332964728"/>
+        <c:crossAx val="334112488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2208,7 +2227,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="332964728"/>
+        <c:axId val="334112488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2259,7 +2278,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="332964336"/>
+        <c:crossAx val="334112096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3385,11 +3404,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="349062440"/>
-        <c:axId val="349059696"/>
+        <c:axId val="336699832"/>
+        <c:axId val="336702576"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="349062440"/>
+        <c:axId val="336699832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3432,7 +3451,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="349059696"/>
+        <c:crossAx val="336702576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3440,7 +3459,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="349059696"/>
+        <c:axId val="336702576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3491,7 +3510,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="349062440"/>
+        <c:crossAx val="336699832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3938,11 +3957,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="331374368"/>
-        <c:axId val="331374760"/>
+        <c:axId val="334115624"/>
+        <c:axId val="334114056"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="331374368"/>
+        <c:axId val="334115624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3985,7 +4004,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="331374760"/>
+        <c:crossAx val="334114056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3993,7 +4012,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="331374760"/>
+        <c:axId val="334114056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4044,7 +4063,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="331374368"/>
+        <c:crossAx val="334115624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4481,11 +4500,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="331376720"/>
-        <c:axId val="331375152"/>
+        <c:axId val="334113272"/>
+        <c:axId val="334116408"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="331376720"/>
+        <c:axId val="334113272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4528,7 +4547,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="331375152"/>
+        <c:crossAx val="334116408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4536,7 +4555,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="331375152"/>
+        <c:axId val="334116408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4587,7 +4606,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="331376720"/>
+        <c:crossAx val="334113272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5342,11 +5361,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="331377112"/>
-        <c:axId val="331372800"/>
+        <c:axId val="334119152"/>
+        <c:axId val="334114840"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="331377112"/>
+        <c:axId val="334119152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5389,7 +5408,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="331372800"/>
+        <c:crossAx val="334114840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5397,7 +5416,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="331372800"/>
+        <c:axId val="334114840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5448,7 +5467,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="331377112"/>
+        <c:crossAx val="334119152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5885,11 +5904,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="331371232"/>
-        <c:axId val="331376328"/>
+        <c:axId val="335641160"/>
+        <c:axId val="335642728"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="331371232"/>
+        <c:axId val="335641160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5932,7 +5951,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="331376328"/>
+        <c:crossAx val="335642728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5940,7 +5959,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="331376328"/>
+        <c:axId val="335642728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5991,7 +6010,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="331371232"/>
+        <c:crossAx val="335641160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6428,11 +6447,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="332967472"/>
-        <c:axId val="332965512"/>
+        <c:axId val="335639592"/>
+        <c:axId val="335637240"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="332967472"/>
+        <c:axId val="335639592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6475,7 +6494,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="332965512"/>
+        <c:crossAx val="335637240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6483,7 +6502,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="332965512"/>
+        <c:axId val="335637240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6534,7 +6553,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="332967472"/>
+        <c:crossAx val="335639592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6971,11 +6990,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="332963552"/>
-        <c:axId val="332968648"/>
+        <c:axId val="335644296"/>
+        <c:axId val="335643120"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="332963552"/>
+        <c:axId val="335644296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7018,7 +7037,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="332968648"/>
+        <c:crossAx val="335643120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7026,7 +7045,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="332968648"/>
+        <c:axId val="335643120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7077,7 +7096,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="332963552"/>
+        <c:crossAx val="335644296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7866,11 +7885,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="332966688"/>
-        <c:axId val="332966296"/>
+        <c:axId val="335639984"/>
+        <c:axId val="335644688"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="332966688"/>
+        <c:axId val="335639984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7913,7 +7932,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="332966296"/>
+        <c:crossAx val="335644688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7921,7 +7940,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="332966296"/>
+        <c:axId val="335644688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7972,7 +7991,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="332966688"/>
+        <c:crossAx val="335639984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8409,11 +8428,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="332968256"/>
-        <c:axId val="332967080"/>
+        <c:axId val="335638808"/>
+        <c:axId val="335638416"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="332968256"/>
+        <c:axId val="335638808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8456,7 +8475,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="332967080"/>
+        <c:crossAx val="335638416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8464,7 +8483,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="332967080"/>
+        <c:axId val="335638416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8515,7 +8534,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="332968256"/>
+        <c:crossAx val="335638808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16197,15 +16216,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>629227</xdr:colOff>
+      <xdr:colOff>629226</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>165389</xdr:rowOff>
+      <xdr:rowOff>165388</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>352136</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>94384</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>678294</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>14430</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16229,13 +16248,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>643660</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>179820</xdr:rowOff>
+      <xdr:rowOff>179819</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>366569</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>108815</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>389659</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>158749</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16289,13 +16308,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>672523</xdr:colOff>
       <xdr:row>98</xdr:row>
-      <xdr:rowOff>179819</xdr:rowOff>
+      <xdr:rowOff>179818</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>395432</xdr:colOff>
-      <xdr:row>113</xdr:row>
-      <xdr:rowOff>108815</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>72159</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>115453</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16666,8 +16685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B15:F39"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+    <sheetView topLeftCell="A10" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -18873,8 +18892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B15:F127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A116" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="L120" sqref="L120"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -19970,16 +19989,16 @@
       </c>
     </row>
     <row r="101" spans="2:6">
-      <c r="B101" s="4">
+      <c r="B101" s="14">
         <v>4.8872947692870997E-2</v>
       </c>
-      <c r="C101" s="4">
+      <c r="C101" s="14">
         <v>1</v>
       </c>
-      <c r="E101" s="4">
+      <c r="E101" s="14">
         <v>2.1942138671875E-2</v>
       </c>
-      <c r="F101" s="4">
+      <c r="F101" s="14">
         <v>1</v>
       </c>
     </row>
@@ -20286,17 +20305,17 @@
       </c>
     </row>
     <row r="121" spans="2:6">
-      <c r="B121" s="4">
+      <c r="B121" s="15">
         <v>2.3329050540924001</v>
       </c>
-      <c r="C121" s="4">
+      <c r="C121" s="15">
         <f t="shared" si="10"/>
         <v>100</v>
       </c>
-      <c r="E121" s="4">
+      <c r="E121" s="15">
         <v>2.2951962947845401</v>
       </c>
-      <c r="F121" s="4">
+      <c r="F121" s="15">
         <f t="shared" si="11"/>
         <v>100</v>
       </c>
